--- a/data/2024_allocation.xlsx
+++ b/data/2024_allocation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pfizer-my.sharepoint.com/personal/wittej09_pfizer_com/Documents/Documents/Quarto/KarambolageInvesting/Investing2023/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2782" documentId="11_0B82D11B6A48B65002E97C353EDCE6B220F4367A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{183D7DBE-1F65-47EA-A3BA-1B9C7488B199}"/>
+  <xr:revisionPtr revIDLastSave="2784" documentId="11_0B82D11B6A48B65002E97C353EDCE6B220F4367A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4500E360-EFCA-41C8-A1A7-4B95D395DB84}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="allocation" sheetId="7" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="43">
   <si>
     <t>Johnson&amp;Johnson</t>
   </si>
@@ -125,15 +125,9 @@
     <t>50y</t>
   </si>
   <si>
-    <t>empty trade (AMZN)</t>
-  </si>
-  <si>
     <t>ideal_add_price</t>
   </si>
   <si>
-    <t>Palo Alto/Crowdstrike</t>
-  </si>
-  <si>
     <t>market</t>
   </si>
   <si>
@@ -168,6 +162,9 @@
   </si>
   <si>
     <t>med</t>
+  </si>
+  <si>
+    <t>Visa</t>
   </si>
 </sst>
 </file>
@@ -587,28 +584,28 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="26.28515625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="4" customWidth="1"/>
     <col min="4" max="4" width="18" style="4" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="10.88671875" customWidth="1"/>
-    <col min="7" max="7" width="32.33203125" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" customWidth="1"/>
-    <col min="9" max="9" width="20.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" customWidth="1"/>
+    <col min="7" max="7" width="32.28515625" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17.399999999999999">
+    <row r="1" spans="1:9" ht="18">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>13</v>
@@ -626,10 +623,10 @@
         <v>18</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15">
@@ -637,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C2" s="4">
         <v>5</v>
@@ -664,7 +661,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C3" s="4">
         <v>5</v>
@@ -689,7 +686,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C4" s="4">
         <v>5</v>
@@ -714,7 +711,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C5" s="4">
         <v>5</v>
@@ -743,7 +740,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C6" s="4">
         <v>5</v>
@@ -768,7 +765,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C7" s="4">
         <v>5</v>
@@ -777,7 +774,7 @@
         <v>10</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>23</v>
@@ -797,7 +794,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C8" s="4">
         <v>5</v>
@@ -822,7 +819,7 @@
         <v>11</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C9" s="4">
         <v>5</v>
@@ -837,7 +834,7 @@
         <v>23</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H9" s="4">
         <v>0</v>
@@ -851,7 +848,7 @@
         <v>16</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C10" s="4">
         <v>5</v>
@@ -880,7 +877,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C11" s="4">
         <v>5</v>
@@ -909,7 +906,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C12" s="4">
         <v>5</v>
@@ -924,7 +921,7 @@
         <v>23</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
@@ -934,7 +931,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C13" s="4">
         <v>5</v>
@@ -943,13 +940,13 @@
         <v>10</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>23</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
@@ -959,7 +956,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C14" s="4">
         <v>5</v>
@@ -974,7 +971,7 @@
         <v>23</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H14" s="4">
         <v>10</v>
@@ -985,10 +982,10 @@
     </row>
     <row r="15" spans="1:9" ht="15">
       <c r="A15" s="3" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C15" s="4">
         <v>5</v>
@@ -1013,11 +1010,9 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="15">
-      <c r="A16" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="A16" s="3"/>
       <c r="B16" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C16" s="4">
         <v>5</v>
@@ -1044,7 +1039,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C17" s="4">
         <v>10</v>
@@ -1059,7 +1054,7 @@
         <v>28</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
@@ -1069,7 +1064,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C18" s="4">
         <v>15</v>
@@ -1084,7 +1079,7 @@
         <v>28</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H18" s="4">
         <v>1</v>

--- a/data/2024_allocation.xlsx
+++ b/data/2024_allocation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pfizer-my.sharepoint.com/personal/wittej09_pfizer_com/Documents/Documents/Quarto/KarambolageInvesting/Investing2023/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2784" documentId="11_0B82D11B6A48B65002E97C353EDCE6B220F4367A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4500E360-EFCA-41C8-A1A7-4B95D395DB84}"/>
+  <xr:revisionPtr revIDLastSave="2790" documentId="11_0B82D11B6A48B65002E97C353EDCE6B220F4367A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E1A4259C-7404-49AE-959F-A984C137049E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25320" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="allocation" sheetId="7" r:id="rId1"/>
@@ -149,9 +149,6 @@
     <t>amount in k</t>
   </si>
   <si>
-    <t>sell MCD, buy REXR</t>
-  </si>
-  <si>
     <t>add 2025</t>
   </si>
   <si>
@@ -164,7 +161,10 @@
     <t>med</t>
   </si>
   <si>
-    <t>Visa</t>
+    <t>McDonalds</t>
+  </si>
+  <si>
+    <t>Amazon</t>
   </si>
 </sst>
 </file>
@@ -584,7 +584,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -774,7 +774,7 @@
         <v>10</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>23</v>
@@ -816,7 +816,7 @@
     </row>
     <row r="9" spans="1:9" ht="15">
       <c r="A9" s="3" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>31</v>
@@ -833,15 +833,11 @@
       <c r="F9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>37</v>
-      </c>
+      <c r="G9" s="5"/>
       <c r="H9" s="4">
         <v>0</v>
       </c>
-      <c r="I9" s="4">
-        <v>41</v>
-      </c>
+      <c r="I9" s="4"/>
     </row>
     <row r="10" spans="1:9" ht="15">
       <c r="A10" s="3" t="s">
@@ -921,7 +917,7 @@
         <v>23</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
@@ -940,13 +936,13 @@
         <v>10</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>23</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
@@ -971,7 +967,7 @@
         <v>23</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H14" s="4">
         <v>10</v>
@@ -1010,7 +1006,9 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="15">
-      <c r="A16" s="3"/>
+      <c r="A16" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="B16" s="4" t="s">
         <v>31</v>
       </c>
@@ -1054,7 +1052,7 @@
         <v>28</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>

--- a/data/2024_allocation.xlsx
+++ b/data/2024_allocation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pfizer-my.sharepoint.com/personal/wittej09_pfizer_com/Documents/Documents/Quarto/KarambolageInvesting/Investing2023/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2790" documentId="11_0B82D11B6A48B65002E97C353EDCE6B220F4367A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E1A4259C-7404-49AE-959F-A984C137049E}"/>
+  <xr:revisionPtr revIDLastSave="2805" documentId="11_0B82D11B6A48B65002E97C353EDCE6B220F4367A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12BDB7FD-3025-400E-AF67-7945FD301946}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="allocation" sheetId="7" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="44">
   <si>
     <t>Johnson&amp;Johnson</t>
   </si>
@@ -116,9 +116,6 @@
     <t>add worth 5k</t>
   </si>
   <si>
-    <t xml:space="preserve">add 5k </t>
-  </si>
-  <si>
     <t xml:space="preserve">add 10k </t>
   </si>
   <si>
@@ -165,6 +162,12 @@
   </si>
   <si>
     <t>Amazon</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>add to 50k in 2024</t>
   </si>
 </sst>
 </file>
@@ -285,9 +288,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -325,7 +328,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -431,7 +434,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -573,7 +576,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -581,10 +584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE098FBC-D496-4C62-AFB1-6215D47A8979}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -605,7 +608,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>13</v>
@@ -623,10 +626,10 @@
         <v>18</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15">
@@ -634,13 +637,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" s="4">
         <v>5</v>
       </c>
       <c r="D2" s="4">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>21</v>
@@ -661,13 +664,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" s="4">
         <v>5</v>
       </c>
       <c r="D3" s="4">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>21</v>
@@ -686,13 +689,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" s="4">
         <v>5</v>
       </c>
       <c r="D4" s="4">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>21</v>
@@ -711,13 +714,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" s="4">
         <v>5</v>
       </c>
       <c r="D5" s="4">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>21</v>
@@ -726,27 +729,23 @@
         <v>23</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="5">
-        <v>10</v>
-      </c>
-      <c r="I5" s="4">
-        <v>950</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9" ht="15">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" s="4">
         <v>5</v>
       </c>
       <c r="D6" s="4">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>21</v>
@@ -765,16 +764,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" s="4">
         <v>5</v>
       </c>
       <c r="D7" s="4">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>23</v>
@@ -794,13 +793,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" s="4">
         <v>5</v>
       </c>
       <c r="D8" s="4">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>21</v>
@@ -816,16 +815,16 @@
     </row>
     <row r="9" spans="1:9" ht="15">
       <c r="A9" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" s="4">
         <v>5</v>
       </c>
       <c r="D9" s="4">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>21</v>
@@ -844,13 +843,13 @@
         <v>16</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" s="4">
         <v>5</v>
       </c>
       <c r="D10" s="4">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>21</v>
@@ -873,13 +872,13 @@
         <v>7</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11" s="4">
         <v>5</v>
       </c>
       <c r="D11" s="4">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>21</v>
@@ -888,7 +887,7 @@
         <v>23</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H11" s="5">
         <v>10</v>
@@ -902,13 +901,13 @@
         <v>8</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" s="4">
         <v>5</v>
       </c>
       <c r="D12" s="4">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>21</v>
@@ -917,7 +916,7 @@
         <v>23</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
@@ -927,22 +926,22 @@
         <v>9</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C13" s="4">
         <v>5</v>
       </c>
       <c r="D13" s="4">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>23</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
@@ -952,13 +951,13 @@
         <v>10</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14" s="4">
         <v>5</v>
       </c>
       <c r="D14" s="4">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>21</v>
@@ -967,7 +966,7 @@
         <v>23</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H14" s="4">
         <v>10</v>
@@ -978,16 +977,16 @@
     </row>
     <row r="15" spans="1:9" ht="15">
       <c r="A15" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C15" s="4">
         <v>5</v>
       </c>
       <c r="D15" s="4">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>21</v>
@@ -1010,13 +1009,13 @@
         <v>11</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C16" s="4">
         <v>5</v>
       </c>
       <c r="D16" s="4">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>21</v>
@@ -1025,7 +1024,7 @@
         <v>23</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H16" s="4">
         <v>10</v>
@@ -1037,22 +1036,22 @@
         <v>14</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C17" s="4">
         <v>10</v>
       </c>
       <c r="D17" s="4">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
@@ -1062,22 +1061,22 @@
         <v>15</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C18" s="4">
         <v>15</v>
       </c>
       <c r="D18" s="4">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H18" s="4">
         <v>1</v>
@@ -1085,6 +1084,21 @@
       <c r="I18" s="4">
         <v>14</v>
       </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="4">
+        <f>SUM(C2:C22)</f>
+        <v>100</v>
+      </c>
+      <c r="D24" s="4">
+        <f t="shared" ref="D24:G24" si="0">SUM(D2:D22)</f>
+        <v>1000</v>
+      </c>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/2024_allocation.xlsx
+++ b/data/2024_allocation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pfizer-my.sharepoint.com/personal/wittej09_pfizer_com/Documents/Documents/Quarto/KarambolageInvesting/Investing2023/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2805" documentId="11_0B82D11B6A48B65002E97C353EDCE6B220F4367A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12BDB7FD-3025-400E-AF67-7945FD301946}"/>
+  <xr:revisionPtr revIDLastSave="2833" documentId="11_0B82D11B6A48B65002E97C353EDCE6B220F4367A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9BB6A4CF-8E7C-45C3-986A-9913CBFB4DF4}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-1428" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="allocation" sheetId="7" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="50">
   <si>
     <t>Johnson&amp;Johnson</t>
   </si>
@@ -158,16 +158,34 @@
     <t>med</t>
   </si>
   <si>
-    <t>McDonalds</t>
+    <t>total</t>
+  </si>
+  <si>
+    <t>final target reached 2024</t>
+  </si>
+  <si>
+    <t>sell at 5T</t>
   </si>
   <si>
     <t>Amazon</t>
   </si>
   <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>add to 50k in 2024</t>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>JNJ</t>
+  </si>
+  <si>
+    <t>Pfizer</t>
+  </si>
+  <si>
+    <t>American Tower</t>
+  </si>
+  <si>
+    <t>Visa</t>
+  </si>
+  <si>
+    <t>Ni portfolio</t>
   </si>
 </sst>
 </file>
@@ -253,12 +271,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -584,22 +599,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE098FBC-D496-4C62-AFB1-6215D47A8979}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="18" style="4" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="26.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="3" customWidth="1"/>
+    <col min="3" max="4" width="14.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="3" customWidth="1"/>
     <col min="6" max="6" width="10.85546875" customWidth="1"/>
     <col min="7" max="7" width="32.28515625" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" customWidth="1"/>
     <col min="9" max="9" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -625,480 +639,945 @@
       <c r="G1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="4">
-        <v>5</v>
-      </c>
-      <c r="D2" s="4">
-        <v>50</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="4" t="s">
+      <c r="B2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="3">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3">
+        <v>50</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4">
+      <c r="H2" s="3"/>
+      <c r="I2" s="3">
         <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="4">
-        <v>5</v>
-      </c>
-      <c r="D3" s="4">
-        <v>50</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="4" t="s">
+      <c r="B3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="3">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3">
+        <v>50</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:9" ht="15">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="4">
-        <v>5</v>
-      </c>
-      <c r="D4" s="4">
-        <v>50</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="4" t="s">
+      <c r="B4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="3">
+        <v>5</v>
+      </c>
+      <c r="D4" s="3">
+        <v>50</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" ht="15">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="4">
-        <v>5</v>
-      </c>
-      <c r="D5" s="4">
-        <v>50</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="4"/>
+      <c r="B5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="3">
+        <v>5</v>
+      </c>
+      <c r="D5" s="3">
+        <v>50</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" ht="15">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="4">
-        <v>5</v>
-      </c>
-      <c r="D6" s="4">
-        <v>50</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="4" t="s">
+      <c r="B6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="3">
+        <v>5</v>
+      </c>
+      <c r="D6" s="3">
+        <v>50</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9" ht="15">
-      <c r="A7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="4" t="s">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="4">
-        <v>5</v>
-      </c>
-      <c r="D7" s="4">
-        <v>50</v>
-      </c>
-      <c r="E7" s="4" t="s">
+      <c r="C7" s="3">
+        <v>5</v>
+      </c>
+      <c r="D7" s="3">
+        <v>50</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="4" t="s">
+      <c r="F7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="5">
-        <v>5</v>
-      </c>
-      <c r="I7" s="4">
+      <c r="H7" s="4">
+        <v>5</v>
+      </c>
+      <c r="I7" s="3">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="4">
-        <v>5</v>
-      </c>
-      <c r="D8" s="4">
-        <v>50</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="4" t="s">
+      <c r="B8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="3">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>50</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:9" ht="15">
+      <c r="A9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="3">
+        <v>5</v>
+      </c>
+      <c r="D9" s="3">
+        <v>50</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:9" ht="15">
+      <c r="A10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="3">
+        <v>5</v>
+      </c>
+      <c r="D10" s="3">
+        <v>50</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-    </row>
-    <row r="9" spans="1:9" ht="15">
-      <c r="A9" s="3" t="s">
+      <c r="H10" s="4">
+        <v>5</v>
+      </c>
+      <c r="I10" s="3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15">
+      <c r="A11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="3">
+        <v>5</v>
+      </c>
+      <c r="D11" s="3">
+        <v>50</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="4">
+        <v>10</v>
+      </c>
+      <c r="I11" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15">
+      <c r="A12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="3">
+        <v>5</v>
+      </c>
+      <c r="D12" s="3">
+        <v>50</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="1:9" ht="15">
+      <c r="A13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="3">
+        <v>5</v>
+      </c>
+      <c r="D13" s="3">
+        <v>50</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="1:9" ht="15">
+      <c r="A14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="3">
+        <v>5</v>
+      </c>
+      <c r="D14" s="3">
+        <v>50</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14" s="3">
+        <v>10</v>
+      </c>
+      <c r="I14" s="3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="3">
+        <v>5</v>
+      </c>
+      <c r="D15" s="3">
+        <v>50</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="3">
+        <v>5</v>
+      </c>
+      <c r="I15" s="3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="3">
+        <v>5</v>
+      </c>
+      <c r="D16" s="3">
+        <v>50</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" s="3">
+        <v>10</v>
+      </c>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="1:9" ht="15">
+      <c r="A17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="3">
+        <v>10</v>
+      </c>
+      <c r="D17" s="3">
+        <v>100</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="1:9" ht="15">
+      <c r="A18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="3">
+        <v>15</v>
+      </c>
+      <c r="D18" s="3">
+        <v>150</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H18" s="3">
+        <v>1</v>
+      </c>
+      <c r="I18" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="4">
-        <v>5</v>
-      </c>
-      <c r="D9" s="4">
-        <v>50</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="4">
-        <v>0</v>
-      </c>
-      <c r="I9" s="4"/>
-    </row>
-    <row r="10" spans="1:9" ht="15">
-      <c r="A10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="4">
-        <v>5</v>
-      </c>
-      <c r="D10" s="4">
-        <v>50</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="5">
-        <v>5</v>
-      </c>
-      <c r="I10" s="4">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15">
-      <c r="A11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="4">
-        <v>5</v>
-      </c>
-      <c r="D11" s="4">
-        <v>50</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H11" s="5">
-        <v>10</v>
-      </c>
-      <c r="I11" s="4">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15">
-      <c r="A12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="4">
-        <v>5</v>
-      </c>
-      <c r="D12" s="4">
-        <v>50</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-    </row>
-    <row r="13" spans="1:9" ht="15">
-      <c r="A13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="4">
-        <v>5</v>
-      </c>
-      <c r="D13" s="4">
-        <v>50</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-    </row>
-    <row r="14" spans="1:9" ht="15">
-      <c r="A14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="4">
-        <v>5</v>
-      </c>
-      <c r="D14" s="4">
-        <v>50</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H14" s="4">
-        <v>10</v>
-      </c>
-      <c r="I14" s="4">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15">
-      <c r="A15" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="4">
-        <v>5</v>
-      </c>
-      <c r="D15" s="4">
-        <v>50</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H15" s="4">
-        <v>5</v>
-      </c>
-      <c r="I15" s="4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15">
-      <c r="A16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="4">
-        <v>5</v>
-      </c>
-      <c r="D16" s="4">
-        <v>50</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H16" s="4">
-        <v>10</v>
-      </c>
-      <c r="I16" s="4"/>
-    </row>
-    <row r="17" spans="1:9" ht="15">
-      <c r="A17" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="4">
-        <v>10</v>
-      </c>
-      <c r="D17" s="4">
-        <v>100</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-    </row>
-    <row r="18" spans="1:9" ht="15">
-      <c r="A18" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="4">
-        <v>15</v>
-      </c>
-      <c r="D18" s="4">
-        <v>150</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H18" s="4">
-        <v>1</v>
-      </c>
-      <c r="I18" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" s="4">
+      <c r="C24" s="3">
         <f>SUM(C2:C22)</f>
         <v>100</v>
       </c>
-      <c r="D24" s="4">
-        <f t="shared" ref="D24:G24" si="0">SUM(D2:D22)</f>
+      <c r="D24" s="3">
+        <f t="shared" ref="D24" si="0">SUM(D2:D22)</f>
         <v>1000</v>
       </c>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="18">
+      <c r="A42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="15">
+      <c r="A43" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C43" s="3">
+        <v>5</v>
+      </c>
+      <c r="D43" s="3">
+        <v>50</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="15">
+      <c r="A44" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C44" s="3">
+        <v>5</v>
+      </c>
+      <c r="D44" s="3">
+        <v>50</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+    </row>
+    <row r="45" spans="1:9" ht="15">
+      <c r="A45" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C45" s="3">
+        <v>5</v>
+      </c>
+      <c r="D45" s="3">
+        <v>50</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+    </row>
+    <row r="46" spans="1:9" ht="15">
+      <c r="A46" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C46" s="3">
+        <v>5</v>
+      </c>
+      <c r="D46" s="3">
+        <v>50</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H46" s="4"/>
+      <c r="I46" s="3"/>
+    </row>
+    <row r="47" spans="1:9" ht="15">
+      <c r="A47" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C47" s="3">
+        <v>5</v>
+      </c>
+      <c r="D47" s="3">
+        <v>50</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+    </row>
+    <row r="48" spans="1:9" ht="15">
+      <c r="A48" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C48" s="3">
+        <v>5</v>
+      </c>
+      <c r="D48" s="3">
+        <v>50</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H48" s="4">
+        <v>5</v>
+      </c>
+      <c r="I48" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="15">
+      <c r="A49" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C49" s="3">
+        <v>5</v>
+      </c>
+      <c r="D49" s="3">
+        <v>50</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+    </row>
+    <row r="50" spans="1:9" ht="15">
+      <c r="A50" s="2"/>
+      <c r="B50" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C50" s="3">
+        <v>5</v>
+      </c>
+      <c r="D50" s="3">
+        <v>50</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G50" s="4"/>
+      <c r="H50" s="3">
+        <v>0</v>
+      </c>
+      <c r="I50" s="3"/>
+    </row>
+    <row r="51" spans="1:9" ht="15">
+      <c r="A51" s="2"/>
+      <c r="B51" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C51" s="3">
+        <v>5</v>
+      </c>
+      <c r="D51" s="3">
+        <v>50</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H51" s="4">
+        <v>5</v>
+      </c>
+      <c r="I51" s="3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="15">
+      <c r="A52" s="2"/>
+      <c r="B52" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C52" s="3">
+        <v>5</v>
+      </c>
+      <c r="D52" s="3">
+        <v>50</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H52" s="4">
+        <v>10</v>
+      </c>
+      <c r="I52" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="15">
+      <c r="A53" s="2"/>
+      <c r="B53" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C53" s="3">
+        <v>5</v>
+      </c>
+      <c r="D53" s="3">
+        <v>50</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+    </row>
+    <row r="54" spans="1:9" ht="15">
+      <c r="A54" s="2"/>
+      <c r="B54" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C54" s="3">
+        <v>5</v>
+      </c>
+      <c r="D54" s="3">
+        <v>50</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+    </row>
+    <row r="55" spans="1:9" ht="15">
+      <c r="A55" s="2"/>
+      <c r="B55" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C55" s="3">
+        <v>5</v>
+      </c>
+      <c r="D55" s="3">
+        <v>50</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H55" s="3">
+        <v>10</v>
+      </c>
+      <c r="I55" s="3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="15">
+      <c r="A56" s="2"/>
+      <c r="B56" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C56" s="3">
+        <v>5</v>
+      </c>
+      <c r="D56" s="3">
+        <v>50</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H56" s="3">
+        <v>5</v>
+      </c>
+      <c r="I56" s="3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="15">
+      <c r="A57" s="2"/>
+      <c r="B57" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C57" s="3">
+        <v>5</v>
+      </c>
+      <c r="D57" s="3">
+        <v>50</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H57" s="3">
+        <v>10</v>
+      </c>
+      <c r="I57" s="3"/>
+    </row>
+    <row r="58" spans="1:9" ht="15">
+      <c r="A58" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C58" s="3">
+        <v>10</v>
+      </c>
+      <c r="D58" s="3">
+        <v>100</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+    </row>
+    <row r="59" spans="1:9" ht="15">
+      <c r="A59" s="2"/>
+      <c r="B59" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C59" s="3">
+        <v>15</v>
+      </c>
+      <c r="D59" s="3">
+        <v>150</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H59" s="3">
+        <v>1</v>
+      </c>
+      <c r="I59" s="3">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
